--- a/test_file/gen/電動機特性計算表b.xlsx
+++ b/test_file/gen/電動機特性計算表b.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6470" yWindow="4270" windowWidth="25400" windowHeight="14120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="loadsort_x" localSheetId="1">工作表1!$A$1:$I$129</definedName>
+  </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -507,6 +509,26 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -527,26 +549,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -647,6 +649,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,9 +766,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,12 +775,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,105 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -807,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -817,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -899,6 +901,2148 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$D$1:$D$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$D$3:$D$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="261907071"/>
+        <axId val="261903743"/>
+      </scatterChart>
+      <valAx>
+        <axId val="261907071"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261903743"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="261903743"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261907071"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$G$1:$G$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$G$3:$G$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="262467791"/>
+        <axId val="262470703"/>
+      </scatterChart>
+      <valAx>
+        <axId val="262467791"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="262470703"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="262470703"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="262467791"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$E$1:$E$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$E$3:$E$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$H$1:$H$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$H$3:$H$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="260426591"/>
+        <axId val="260422847"/>
+      </scatterChart>
+      <valAx>
+        <axId val="260426591"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="260422847"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="260422847"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="260426591"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$I$1:$I$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$I$3:$I$129</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="127"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="261916223"/>
+        <axId val="261917055"/>
+      </scatterChart>
+      <valAx>
+        <axId val="261916223"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261917055"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="261917055"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261916223"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$G$1:$G$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$G$3:$G$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="262467791"/>
+        <axId val="262470703"/>
+      </scatterChart>
+      <valAx>
+        <axId val="262467791"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="262470703"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="262470703"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="262467791"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$E$1:$E$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$E$3:$E$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$H$1:$H$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$H$3:$H$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="260426591"/>
+        <axId val="260422847"/>
+      </scatterChart>
+      <valAx>
+        <axId val="260426591"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="260422847"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="260422847"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="260426591"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$I$1:$I$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$I$3:$I$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="261916223"/>
+        <axId val="261917055"/>
+      </scatterChart>
+      <valAx>
+        <axId val="261916223"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261917055"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="261917055"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261916223"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>工作表1!$D$1:$D$2</f>
+              <strCache>
+                <ptCount val="2"/>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>工作表1!$A$3:$A$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>工作表1!$D$3:$D$200</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="198"/>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="261907071"/>
+        <axId val="261903743"/>
+      </scatterChart>
+      <valAx>
+        <axId val="261907071"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261903743"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="261903743"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="261907071"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>22860</colOff>
+      <row>19</row>
+      <rowOff>114300</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>220980</colOff>
+      <row>27</row>
+      <rowOff>175260</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>205740</colOff>
+      <row>19</row>
+      <rowOff>83820</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>381000</colOff>
+      <row>27</row>
+      <rowOff>140970</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>7620</colOff>
+      <row>31</row>
+      <rowOff>114300</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>198120</colOff>
+      <row>39</row>
+      <rowOff>407670</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>205740</colOff>
+      <row>31</row>
+      <rowOff>91440</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>381000</colOff>
+      <row>39</row>
+      <rowOff>377190</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>83820</colOff>
+      <row>3</row>
+      <rowOff>64770</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>266700</colOff>
+      <row>12</row>
+      <rowOff>68580</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>396240</colOff>
+      <row>13</row>
+      <rowOff>3810</rowOff>
+    </from>
+    <to>
+      <col>13</col>
+      <colOff>571500</colOff>
+      <row>22</row>
+      <rowOff>15240</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>91440</colOff>
+      <row>13</row>
+      <rowOff>3810</rowOff>
+    </from>
+    <to>
+      <col>18</col>
+      <colOff>274320</colOff>
+      <row>22</row>
+      <rowOff>7620</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>396240</colOff>
+      <row>3</row>
+      <rowOff>68580</rowOff>
+    </from>
+    <to>
+      <col>13</col>
+      <colOff>579120</colOff>
+      <row>12</row>
+      <rowOff>76200</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +3315,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:M40"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.5"/>
@@ -1187,14 +3331,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" s="78">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="67" t="inlineStr">
         <is>
           <t>修附電機股份有限公司 Showfou Electric Machine Co. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="2" ht="29.4" customHeight="1" s="78">
-      <c r="A2" s="32" t="inlineStr">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>馬 達 特 性 試 驗 表 Motor Performance Report</t>
         </is>
@@ -1216,51 +3360,55 @@
       <c r="M3" s="2" t="n"/>
     </row>
     <row r="4" ht="18.9" customHeight="1" s="78">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="49" t="inlineStr">
         <is>
           <t>電腦編號</t>
         </is>
       </c>
-      <c r="C4" s="35" t="inlineStr">
+      <c r="C4" s="70" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>編號123456</t>
         </is>
       </c>
-      <c r="G4" s="34" t="inlineStr">
+      <c r="G4" s="49" t="inlineStr">
         <is>
           <t>報告編號</t>
         </is>
       </c>
-      <c r="H4" s="54" t="n"/>
+      <c r="H4" s="33" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="inlineStr">
         <is>
           <t>印表日期</t>
         </is>
       </c>
-      <c r="L4" s="56" t="inlineStr"/>
+      <c r="L4" s="35" t="inlineStr"/>
     </row>
     <row r="5" ht="18.9" customHeight="1" s="78">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="72" t="inlineStr">
         <is>
           <t>型       式</t>
         </is>
       </c>
       <c r="B5" s="79" t="n"/>
-      <c r="C5" s="44" t="inlineStr">
+      <c r="C5" s="77" t="inlineStr">
         <is>
-          <t>T123</t>
+          <t>Type123</t>
         </is>
       </c>
       <c r="D5" s="79" t="n"/>
       <c r="E5" s="79" t="n"/>
       <c r="F5" s="79" t="n"/>
-      <c r="G5" s="34" t="inlineStr">
+      <c r="G5" s="49" t="inlineStr">
         <is>
           <t>製造號碼</t>
         </is>
       </c>
-      <c r="H5" s="53" t="n"/>
+      <c r="H5" s="32" t="inlineStr">
+        <is>
+          <t>Make123</t>
+        </is>
+      </c>
       <c r="I5" s="79" t="n"/>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="inlineStr">
@@ -1268,43 +3416,47 @@
           <t>試驗日期</t>
         </is>
       </c>
-      <c r="L5" s="55" t="n"/>
+      <c r="L5" s="34" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
       <c r="M5" s="79" t="n"/>
     </row>
-    <row r="6" ht="20" customFormat="1" customHeight="1" s="72">
+    <row r="6" ht="20" customFormat="1" customHeight="1" s="55">
       <c r="A6" s="80" t="inlineStr">
         <is>
           <t>馬力</t>
         </is>
       </c>
       <c r="B6" s="81" t="n"/>
-      <c r="C6" s="46" t="inlineStr">
+      <c r="C6" s="52" t="inlineStr">
         <is>
           <t>相數</t>
         </is>
       </c>
-      <c r="D6" s="46" t="inlineStr">
+      <c r="D6" s="52" t="inlineStr">
         <is>
           <t>頻率</t>
         </is>
       </c>
-      <c r="E6" s="46" t="inlineStr">
+      <c r="E6" s="52" t="inlineStr">
         <is>
           <t>電壓</t>
         </is>
       </c>
       <c r="F6" s="81" t="n"/>
-      <c r="G6" s="46" t="inlineStr">
+      <c r="G6" s="52" t="inlineStr">
         <is>
           <t>電流</t>
         </is>
       </c>
-      <c r="H6" s="46" t="inlineStr">
+      <c r="H6" s="52" t="inlineStr">
         <is>
-          <t>M123</t>
+          <t>極數</t>
         </is>
       </c>
-      <c r="I6" s="46" t="inlineStr">
+      <c r="I6" s="52" t="inlineStr">
         <is>
           <t>回轉數</t>
         </is>
@@ -1314,7 +3466,7 @@
           <t>空載電流</t>
         </is>
       </c>
-      <c r="K6" s="46" t="inlineStr">
+      <c r="K6" s="52" t="inlineStr">
         <is>
           <t>溫升</t>
         </is>
@@ -1338,43 +3490,43 @@
           <t>HP</t>
         </is>
       </c>
-      <c r="B7" s="70" t="inlineStr">
+      <c r="B7" s="53" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="C7" s="70" t="inlineStr">
+      <c r="C7" s="53" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="D7" s="70" t="inlineStr">
+      <c r="D7" s="53" t="inlineStr">
         <is>
           <t>Hz</t>
         </is>
       </c>
-      <c r="E7" s="70" t="inlineStr">
+      <c r="E7" s="53" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
       <c r="F7" s="84" t="n"/>
-      <c r="G7" s="70" t="inlineStr">
+      <c r="G7" s="53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H7" s="70" t="inlineStr">
+      <c r="H7" s="53" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="70" t="inlineStr">
+      <c r="I7" s="53" t="inlineStr">
         <is>
           <t>RPM</t>
         </is>
       </c>
-      <c r="J7" s="70" t="inlineStr">
+      <c r="J7" s="53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1391,35 +3543,35 @@
       <c r="A8" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="n"/>
-      <c r="C8" s="45" t="n">
+      <c r="B8" s="64" t="n"/>
+      <c r="C8" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="45" t="n">
+      <c r="D8" s="64" t="n">
         <v>60</v>
       </c>
-      <c r="E8" s="45" t="n">
+      <c r="E8" s="64" t="n">
         <v>220</v>
       </c>
       <c r="F8" s="87" t="n"/>
       <c r="G8" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="45" t="n">
+      <c r="H8" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="45" t="n">
+      <c r="I8" s="64" t="n">
         <v>3600</v>
       </c>
-      <c r="J8" s="45" t="n">
+      <c r="J8" s="64" t="n">
         <v>1.2</v>
       </c>
-      <c r="K8" s="45" t="inlineStr"/>
-      <c r="L8" s="45" t="inlineStr"/>
+      <c r="K8" s="64" t="inlineStr"/>
+      <c r="L8" s="64" t="inlineStr"/>
       <c r="M8" s="30" t="n"/>
     </row>
     <row r="9" ht="11.25" customHeight="1" s="78">
-      <c r="A9" s="36" t="n"/>
+      <c r="A9" s="71" t="n"/>
       <c r="B9" s="88" t="n"/>
       <c r="C9" s="88" t="n"/>
       <c r="D9" s="88" t="n"/>
@@ -1439,49 +3591,49 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="B10" s="46" t="inlineStr">
+      <c r="B10" s="52" t="inlineStr">
         <is>
           <t>電壓</t>
         </is>
       </c>
       <c r="C10" s="81" t="n"/>
-      <c r="D10" s="46" t="inlineStr">
+      <c r="D10" s="52" t="inlineStr">
         <is>
           <t>電流</t>
         </is>
       </c>
       <c r="E10" s="81" t="n"/>
-      <c r="F10" s="46" t="inlineStr">
+      <c r="F10" s="52" t="inlineStr">
         <is>
           <t>功因</t>
         </is>
       </c>
-      <c r="G10" s="46" t="inlineStr">
+      <c r="G10" s="52" t="inlineStr">
         <is>
           <t>轉速</t>
         </is>
       </c>
-      <c r="H10" s="46" t="inlineStr">
+      <c r="H10" s="52" t="inlineStr">
         <is>
           <t>轉差</t>
         </is>
       </c>
-      <c r="I10" s="46" t="inlineStr">
+      <c r="I10" s="52" t="inlineStr">
         <is>
           <t>轉矩</t>
         </is>
       </c>
-      <c r="J10" s="46" t="inlineStr">
+      <c r="J10" s="52" t="inlineStr">
         <is>
           <t>入力</t>
         </is>
       </c>
-      <c r="K10" s="46" t="inlineStr">
+      <c r="K10" s="52" t="inlineStr">
         <is>
           <t>出力</t>
         </is>
       </c>
-      <c r="L10" s="46" t="inlineStr">
+      <c r="L10" s="52" t="inlineStr">
         <is>
           <t>效率</t>
         </is>
@@ -1494,13 +3646,13 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="n"/>
-      <c r="B11" s="70" t="inlineStr">
+      <c r="B11" s="53" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
       <c r="C11" s="84" t="n"/>
-      <c r="D11" s="70" t="inlineStr">
+      <c r="D11" s="53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1511,32 +3663,32 @@
           <t>PF %</t>
         </is>
       </c>
-      <c r="G11" s="70" t="inlineStr">
+      <c r="G11" s="53" t="inlineStr">
         <is>
           <t>RPM</t>
         </is>
       </c>
-      <c r="H11" s="70" t="inlineStr">
+      <c r="H11" s="53" t="inlineStr">
         <is>
           <t>Slip</t>
         </is>
       </c>
-      <c r="I11" s="70" t="inlineStr">
+      <c r="I11" s="53" t="inlineStr">
         <is>
           <t>kgf·M</t>
         </is>
       </c>
-      <c r="J11" s="70" t="inlineStr">
+      <c r="J11" s="53" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="K11" s="70" t="inlineStr">
+      <c r="K11" s="53" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="L11" s="70" t="inlineStr">
+      <c r="L11" s="53" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -1547,33 +3699,33 @@
       <c r="A12" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="45" t="n">
+      <c r="B12" s="64" t="n">
         <v>219.8</v>
       </c>
       <c r="C12" s="87" t="n"/>
-      <c r="D12" s="45" t="n">
+      <c r="D12" s="64" t="n">
         <v>3.0446</v>
       </c>
       <c r="E12" s="87" t="n"/>
       <c r="F12" s="23" t="n">
         <v>39.15</v>
       </c>
-      <c r="G12" s="45" t="n">
-        <v>3587.4</v>
-      </c>
-      <c r="H12" s="45" t="n">
+      <c r="G12" s="64" t="n">
+        <v>3591</v>
+      </c>
+      <c r="H12" s="64" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="45" t="n">
+      <c r="J12" s="64" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K12" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="45" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="K12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="45" t="n">
+      <c r="L12" s="64" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="21" t="n">
@@ -1584,33 +3736,33 @@
       <c r="A13" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="45" t="n">
+      <c r="B13" s="64" t="n">
         <v>220</v>
       </c>
       <c r="C13" s="87" t="n"/>
-      <c r="D13" s="45" t="n">
+      <c r="D13" s="64" t="n">
         <v>3.4023</v>
       </c>
       <c r="E13" s="87" t="n"/>
       <c r="F13" s="23" t="n">
         <v>65.02</v>
       </c>
-      <c r="G13" s="45" t="n">
+      <c r="G13" s="64" t="n">
         <v>3566</v>
       </c>
-      <c r="H13" s="45" t="n">
+      <c r="H13" s="64" t="n">
         <v>0.95</v>
       </c>
-      <c r="I13" s="45" t="n">
+      <c r="I13" s="64" t="n">
         <v>0.0555</v>
       </c>
-      <c r="J13" s="45" t="n">
+      <c r="J13" s="64" t="n">
         <v>0.4867</v>
       </c>
-      <c r="K13" s="45" t="n">
+      <c r="K13" s="64" t="n">
         <v>0.1865</v>
       </c>
-      <c r="L13" s="45" t="n">
+      <c r="L13" s="64" t="n">
         <v>38.29</v>
       </c>
       <c r="M13" s="21" t="n">
@@ -1621,33 +3773,33 @@
       <c r="A14" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="45" t="n">
+      <c r="B14" s="64" t="n">
         <v>220</v>
       </c>
       <c r="C14" s="87" t="n"/>
-      <c r="D14" s="45" t="n">
+      <c r="D14" s="64" t="n">
         <v>3.8631</v>
       </c>
       <c r="E14" s="87" t="n"/>
       <c r="F14" s="23" t="n">
         <v>77.84999999999999</v>
       </c>
-      <c r="G14" s="45" t="n">
+      <c r="G14" s="64" t="n">
         <v>3543.6</v>
       </c>
-      <c r="H14" s="45" t="n">
+      <c r="H14" s="64" t="n">
         <v>1.57</v>
       </c>
-      <c r="I14" s="45" t="n">
+      <c r="I14" s="64" t="n">
         <v>0.1117</v>
       </c>
-      <c r="J14" s="45" t="n">
+      <c r="J14" s="64" t="n">
         <v>0.6616</v>
       </c>
-      <c r="K14" s="45" t="n">
+      <c r="K14" s="64" t="n">
         <v>0.373</v>
       </c>
-      <c r="L14" s="45" t="n">
+      <c r="L14" s="64" t="n">
         <v>56.37</v>
       </c>
       <c r="M14" s="21" t="n">
@@ -1658,33 +3810,33 @@
       <c r="A15" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B15" s="45" t="n">
+      <c r="B15" s="64" t="n">
         <v>219.97</v>
       </c>
       <c r="C15" s="87" t="n"/>
-      <c r="D15" s="45" t="n">
+      <c r="D15" s="64" t="n">
         <v>4.4742</v>
       </c>
       <c r="E15" s="87" t="n"/>
       <c r="F15" s="23" t="n">
         <v>85.63</v>
       </c>
-      <c r="G15" s="45" t="n">
+      <c r="G15" s="64" t="n">
         <v>3518</v>
       </c>
-      <c r="H15" s="45" t="n">
+      <c r="H15" s="64" t="n">
         <v>2.28</v>
       </c>
-      <c r="I15" s="45" t="n">
+      <c r="I15" s="64" t="n">
         <v>0.1687</v>
       </c>
-      <c r="J15" s="45" t="n">
+      <c r="J15" s="64" t="n">
         <v>0.8427</v>
       </c>
-      <c r="K15" s="45" t="n">
+      <c r="K15" s="64" t="n">
         <v>0.5595</v>
       </c>
-      <c r="L15" s="45" t="n">
+      <c r="L15" s="64" t="n">
         <v>66.39</v>
       </c>
       <c r="M15" s="21" t="n">
@@ -1695,33 +3847,33 @@
       <c r="A16" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="45" t="n">
+      <c r="B16" s="64" t="n">
         <v>219.97</v>
       </c>
       <c r="C16" s="87" t="n"/>
-      <c r="D16" s="45" t="n">
+      <c r="D16" s="64" t="n">
         <v>5.2427</v>
       </c>
       <c r="E16" s="87" t="n"/>
       <c r="F16" s="23" t="n">
         <v>90.3</v>
       </c>
-      <c r="G16" s="45" t="n">
+      <c r="G16" s="64" t="n">
         <v>3493.9</v>
       </c>
-      <c r="H16" s="45" t="n">
+      <c r="H16" s="64" t="n">
         <v>2.95</v>
       </c>
-      <c r="I16" s="45" t="n">
+      <c r="I16" s="64" t="n">
         <v>0.2265</v>
       </c>
-      <c r="J16" s="45" t="n">
+      <c r="J16" s="64" t="n">
         <v>1.0414</v>
       </c>
-      <c r="K16" s="45" t="n">
+      <c r="K16" s="64" t="n">
         <v>0.746</v>
       </c>
-      <c r="L16" s="45" t="n">
+      <c r="L16" s="64" t="n">
         <v>71.63</v>
       </c>
       <c r="M16" s="21" t="n">
@@ -1732,33 +3884,33 @@
       <c r="A17" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="45" t="n">
+      <c r="B17" s="64" t="n">
         <v>219.92</v>
       </c>
       <c r="C17" s="87" t="n"/>
-      <c r="D17" s="45" t="n">
+      <c r="D17" s="64" t="n">
         <v>5.7552</v>
       </c>
       <c r="E17" s="87" t="n"/>
       <c r="F17" s="23" t="n">
         <v>92.13</v>
       </c>
-      <c r="G17" s="45" t="n">
+      <c r="G17" s="64" t="n">
         <v>3478.9</v>
       </c>
-      <c r="H17" s="45" t="n">
+      <c r="H17" s="64" t="n">
         <v>3.36</v>
       </c>
-      <c r="I17" s="45" t="n">
+      <c r="I17" s="64" t="n">
         <v>0.2617</v>
       </c>
-      <c r="J17" s="45" t="n">
+      <c r="J17" s="64" t="n">
         <v>1.1661</v>
       </c>
-      <c r="K17" s="45" t="n">
+      <c r="K17" s="64" t="n">
         <v>0.8579</v>
       </c>
-      <c r="L17" s="45" t="n">
+      <c r="L17" s="64" t="n">
         <v>73.56</v>
       </c>
       <c r="M17" s="21" t="n">
@@ -1769,33 +3921,33 @@
       <c r="A18" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B18" s="45" t="n">
+      <c r="B18" s="64" t="n">
         <v>219.94</v>
       </c>
       <c r="C18" s="87" t="n"/>
-      <c r="D18" s="45" t="n">
+      <c r="D18" s="64" t="n">
         <v>6.1211</v>
       </c>
       <c r="E18" s="87" t="n"/>
       <c r="F18" s="23" t="n">
         <v>93.05</v>
       </c>
-      <c r="G18" s="45" t="n">
+      <c r="G18" s="64" t="n">
         <v>3465.2</v>
       </c>
-      <c r="H18" s="45" t="n">
+      <c r="H18" s="64" t="n">
         <v>3.75</v>
       </c>
-      <c r="I18" s="45" t="n">
+      <c r="I18" s="64" t="n">
         <v>0.2855</v>
       </c>
-      <c r="J18" s="45" t="n">
+      <c r="J18" s="64" t="n">
         <v>1.2527</v>
       </c>
-      <c r="K18" s="45" t="n">
+      <c r="K18" s="64" t="n">
         <v>0.9325</v>
       </c>
-      <c r="L18" s="45" t="n">
+      <c r="L18" s="64" t="n">
         <v>74.44</v>
       </c>
       <c r="M18" s="21" t="n">
@@ -1803,7 +3955,7 @@
       </c>
     </row>
     <row r="19" ht="19.5" customHeight="1" s="78">
-      <c r="A19" s="38" t="inlineStr">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>電流 CURRENT (A)</t>
         </is>
@@ -1826,7 +3978,7 @@
       <c r="M19" s="90" t="n"/>
     </row>
     <row r="20" ht="9.65" customHeight="1" s="78">
-      <c r="A20" s="61" t="n"/>
+      <c r="A20" s="42" t="n"/>
       <c r="I20" s="91" t="n"/>
       <c r="M20" s="92" t="n"/>
     </row>
@@ -1891,7 +4043,7 @@
       <c r="M30" s="98" t="n"/>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="78">
-      <c r="A31" s="67" t="inlineStr">
+      <c r="A31" s="48" t="inlineStr">
         <is>
           <t>入力 Pin / 出力 BHP (kW)</t>
         </is>
@@ -1904,7 +4056,7 @@
       <c r="M31" s="92" t="n"/>
     </row>
     <row r="32" ht="10.5" customHeight="1" s="78">
-      <c r="A32" s="73" t="n"/>
+      <c r="A32" s="56" t="n"/>
       <c r="I32" s="100" t="n"/>
       <c r="M32" s="92" t="n"/>
     </row>
@@ -1980,21 +4132,21 @@
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
-      <c r="C42" s="34" t="n"/>
-      <c r="D42" s="34" t="n"/>
-      <c r="F42" s="52" t="inlineStr">
+      <c r="C42" s="49" t="n"/>
+      <c r="D42" s="49" t="n"/>
+      <c r="F42" s="31" t="inlineStr">
         <is>
           <t>實驗室主管:</t>
         </is>
       </c>
       <c r="H42" s="25" t="n"/>
-      <c r="I42" s="52" t="inlineStr">
+      <c r="I42" s="31" t="inlineStr">
         <is>
           <t>技術主管:</t>
         </is>
       </c>
       <c r="J42" s="26" t="n"/>
-      <c r="K42" s="52" t="inlineStr">
+      <c r="K42" s="31" t="inlineStr">
         <is>
           <t>測試員:</t>
         </is>
@@ -2014,13 +4166,13 @@
     <mergeCell ref="I20:M30"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A20:H30"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B14:C14"/>
@@ -2032,30 +4184,31 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:M1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="I32:M40"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A2:M2"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I31:M31"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="I19:M19"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="I31:M31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.4724409448818898" right="0.2362204724409449" top="0.5511811023622047" bottom="0.4724409448818898" header="0.3149606299212598" footer="0.1181102362204725"/>
   <pageSetup orientation="portrait" paperSize="9" scale="98" fitToHeight="0" fitToWidth="0"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2068,10 +4221,21 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.5"/>
+  <cols>
+    <col width="9.9140625" bestFit="1" customWidth="1" style="78" min="1" max="1"/>
+    <col width="8.4140625" bestFit="1" customWidth="1" style="78" min="2" max="2"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="78" min="3" max="3"/>
+    <col width="9.25" bestFit="1" customWidth="1" style="78" min="4" max="4"/>
+    <col width="10.08203125" bestFit="1" customWidth="1" style="78" min="5" max="5"/>
+    <col width="9.4140625" bestFit="1" customWidth="1" style="78" min="6" max="6"/>
+    <col width="11.58203125" bestFit="1" customWidth="1" style="78" min="7" max="7"/>
+    <col width="10.08203125" bestFit="1" customWidth="1" style="78" min="8" max="8"/>
+    <col width="9.4140625" bestFit="1" customWidth="1" style="78" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -5852,5 +8016,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>